--- a/data/product_categories.xlsx
+++ b/data/product_categories.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB3AF55-4560-4F21-A768-4A55E5F9E3AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26BA8C9-DA62-4738-B307-24D427325E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final for Post Inventory Count " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final for Post Inventory Count '!$A$1:$C$290</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">'Final for Post Inventory Count '!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="590">
   <si>
     <t>DD Beverage Cooler (Primary)</t>
   </si>
@@ -1837,14 +1838,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2164,10 +2165,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C291"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C240" sqref="C240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2191,530 +2192,530 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>2</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>260</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>262</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>264</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>268</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>272</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>28</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>0</v>
+        <v>176</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>487</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>290</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>43</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>44</v>
+        <v>284</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>499</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>49</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>298</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>300</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>302</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>462</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>246</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>304</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>62</v>
+        <v>501</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>63</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>64</v>
+        <v>503</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>66</v>
+        <v>505</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>67</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>68</v>
+        <v>509</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>70</v>
+        <v>511</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>71</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>72</v>
+        <v>513</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>73</v>
+        <v>514</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>35</v>
+        <v>482</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>75</v>
+        <v>508</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>79</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>83</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>85</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>86</v>
+        <v>324</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>87</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>88</v>
+        <v>322</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>89</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>320</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>91</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>227</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>326</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>94</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>97</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>95</v>
+        <v>482</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>525</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>99</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2722,10 +2723,10 @@
         <v>95</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2733,10 +2734,10 @@
         <v>95</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,10 +2745,10 @@
         <v>95</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,10 +2756,10 @@
         <v>95</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,10 +2767,10 @@
         <v>95</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,10 +2778,10 @@
         <v>95</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,10 +2789,10 @@
         <v>95</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2799,10 +2800,10 @@
         <v>95</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2810,10 +2811,10 @@
         <v>95</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2821,153 +2822,153 @@
         <v>95</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>127</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>128</v>
+        <v>334</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>129</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>133</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>134</v>
+        <v>338</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>135</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>136</v>
+        <v>340</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>137</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>139</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>344</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>141</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>143</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>145</v>
+        <v>351</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2975,516 +2976,516 @@
         <v>95</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>354</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>149</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>155</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>164</v>
+        <v>360</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>165</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>166</v>
+        <v>362</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>167</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>172</v>
+        <v>370</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>173</v>
+        <v>371</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>174</v>
+        <v>378</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>175</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>178</v>
+        <v>383</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>179</v>
+        <v>529</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>180</v>
+        <v>530</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>193</v>
+        <v>515</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>194</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>195</v>
+        <v>519</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>196</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>197</v>
+        <v>523</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>198</v>
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>176</v>
+        <v>482</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>199</v>
+        <v>527</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>200</v>
+        <v>528</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>201</v>
+        <v>384</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>202</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>176</v>
+        <v>95</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>214</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>215</v>
+        <v>392</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>216</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>217</v>
+        <v>394</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>218</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>176</v>
+        <v>533</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>219</v>
+        <v>542</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>220</v>
+        <v>543</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>221</v>
+        <v>400</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>222</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>176</v>
+        <v>533</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>223</v>
+        <v>544</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>224</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>176</v>
+        <v>533</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>225</v>
+        <v>546</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>226</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>228</v>
+        <v>548</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>229</v>
+        <v>549</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -3492,10 +3493,10 @@
         <v>227</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -3503,32 +3504,32 @@
         <v>227</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>244</v>
+        <v>402</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>245</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>246</v>
+        <v>21</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>247</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>248</v>
+        <v>90</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -3536,10 +3537,10 @@
         <v>227</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>250</v>
+        <v>418</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3547,10 +3548,10 @@
         <v>227</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>252</v>
+        <v>420</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3558,10 +3559,10 @@
         <v>227</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>254</v>
+        <v>422</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>255</v>
+        <v>423</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3569,10 +3570,10 @@
         <v>227</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>256</v>
+        <v>424</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>257</v>
+        <v>425</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3580,10 +3581,10 @@
         <v>227</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>258</v>
+        <v>428</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>259</v>
+        <v>429</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3591,10 +3592,10 @@
         <v>227</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>260</v>
+        <v>426</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>261</v>
+        <v>427</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3602,10 +3603,10 @@
         <v>227</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>262</v>
+        <v>434</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>263</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3613,10 +3614,10 @@
         <v>227</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>264</v>
+        <v>438</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>265</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3624,10 +3625,10 @@
         <v>227</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>266</v>
+        <v>440</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>267</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3635,10 +3636,10 @@
         <v>227</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>268</v>
+        <v>444</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>269</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3646,10 +3647,10 @@
         <v>227</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>270</v>
+        <v>448</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>271</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3657,10 +3658,10 @@
         <v>227</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>272</v>
+        <v>466</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>273</v>
+        <v>467</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3668,10 +3669,10 @@
         <v>227</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>274</v>
+        <v>472</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3679,10 +3680,10 @@
         <v>227</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>276</v>
+        <v>474</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>277</v>
+        <v>475</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3690,10 +3691,10 @@
         <v>227</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>278</v>
+        <v>476</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>279</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -3701,76 +3702,76 @@
         <v>227</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>280</v>
+        <v>478</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>282</v>
+        <v>556</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>283</v>
+        <v>557</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>284</v>
+        <v>558</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>285</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>286</v>
+        <v>174</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>287</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>288</v>
+        <v>562</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>289</v>
+        <v>563</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>290</v>
+        <v>211</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>291</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>292</v>
+        <v>564</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>293</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3778,43 +3779,43 @@
         <v>227</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>294</v>
+        <v>480</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>295</v>
+        <v>481</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>296</v>
+        <v>566</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>297</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>298</v>
+        <v>568</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>299</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>301</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -3822,10 +3823,10 @@
         <v>227</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>302</v>
+        <v>404</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>303</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3833,10 +3834,10 @@
         <v>227</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>304</v>
+        <v>450</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3844,197 +3845,197 @@
         <v>227</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>306</v>
+        <v>452</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>307</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>308</v>
+        <v>68</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>310</v>
+        <v>88</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>311</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>315</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>316</v>
+        <v>42</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>317</v>
+        <v>43</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>319</v>
+        <v>45</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>320</v>
+        <v>46</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>321</v>
+        <v>47</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>322</v>
+        <v>48</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>323</v>
+        <v>49</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>324</v>
+        <v>50</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>325</v>
+        <v>51</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>326</v>
+        <v>54</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>328</v>
+        <v>58</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>331</v>
+        <v>61</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>333</v>
+        <v>65</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>335</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>337</v>
+        <v>83</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>338</v>
+        <v>84</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>339</v>
+        <v>85</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>340</v>
+        <v>86</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>341</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -4042,21 +4043,21 @@
         <v>227</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>342</v>
+        <v>470</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>343</v>
+        <v>471</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>345</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -4064,10 +4065,10 @@
         <v>227</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>346</v>
+        <v>414</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>347</v>
+        <v>415</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -4075,10 +4076,10 @@
         <v>227</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>348</v>
+        <v>430</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>349</v>
+        <v>431</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -4086,10 +4087,10 @@
         <v>227</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -4097,10 +4098,10 @@
         <v>227</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>353</v>
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -4108,10 +4109,10 @@
         <v>227</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>355</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -4119,10 +4120,10 @@
         <v>227</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>356</v>
+        <v>232</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>357</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -4130,10 +4131,10 @@
         <v>227</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -4141,10 +4142,10 @@
         <v>227</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>360</v>
+        <v>412</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -4152,10 +4153,10 @@
         <v>227</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -4163,54 +4164,54 @@
         <v>227</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>366</v>
+        <v>554</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>367</v>
+        <v>555</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>368</v>
+        <v>560</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>369</v>
+        <v>561</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>370</v>
+        <v>550</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>371</v>
+        <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>373</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -4218,32 +4219,32 @@
         <v>227</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>376</v>
+        <v>495</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>377</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>378</v>
+        <v>540</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>379</v>
+        <v>541</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -4251,10 +4252,10 @@
         <v>227</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -4262,21 +4263,21 @@
         <v>227</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>382</v>
+        <v>242</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>383</v>
+        <v>243</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>384</v>
+        <v>536</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>385</v>
+        <v>537</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -4284,65 +4285,65 @@
         <v>227</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>386</v>
+        <v>442</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>387</v>
+        <v>443</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>388</v>
+        <v>534</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>389</v>
+        <v>535</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>390</v>
+        <v>552</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>391</v>
+        <v>553</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>392</v>
+        <v>100</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>393</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>394</v>
+        <v>98</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>395</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>396</v>
+        <v>124</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>397</v>
+        <v>125</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -4350,21 +4351,21 @@
         <v>227</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>398</v>
+        <v>330</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>399</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>400</v>
+        <v>493</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>401</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -4372,10 +4373,10 @@
         <v>227</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>402</v>
+        <v>236</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>403</v>
+        <v>237</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -4383,10 +4384,10 @@
         <v>227</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>405</v>
+        <v>229</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -4394,10 +4395,10 @@
         <v>227</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -4405,10 +4406,10 @@
         <v>227</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -4416,76 +4417,76 @@
         <v>227</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>412</v>
+        <v>108</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>413</v>
+        <v>109</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>414</v>
+        <v>158</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>415</v>
+        <v>159</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>417</v>
+        <v>163</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>418</v>
+        <v>491</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>419</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
-        <v>227</v>
+        <v>533</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>420</v>
+        <v>538</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>421</v>
+        <v>539</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>422</v>
+        <v>521</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>423</v>
+        <v>522</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -4493,10 +4494,10 @@
         <v>227</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>424</v>
+        <v>252</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>425</v>
+        <v>253</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -4504,10 +4505,10 @@
         <v>227</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>426</v>
+        <v>468</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>427</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -4515,32 +4516,32 @@
         <v>227</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>428</v>
+        <v>258</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>429</v>
+        <v>259</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>430</v>
+        <v>106</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>431</v>
+        <v>107</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>432</v>
+        <v>531</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>433</v>
+        <v>532</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -4548,10 +4549,10 @@
         <v>227</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4559,32 +4560,32 @@
         <v>227</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>436</v>
+        <v>296</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>437</v>
+        <v>297</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
-        <v>227</v>
+        <v>482</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>440</v>
+        <v>221</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>441</v>
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -4592,10 +4593,10 @@
         <v>227</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>442</v>
+        <v>366</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>443</v>
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4603,10 +4604,10 @@
         <v>227</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>444</v>
+        <v>368</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>445</v>
+        <v>369</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4614,21 +4615,21 @@
         <v>227</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>446</v>
+        <v>328</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>447</v>
+        <v>329</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>448</v>
+        <v>136</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>449</v>
+        <v>137</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4636,32 +4637,32 @@
         <v>227</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>451</v>
+        <v>407</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>452</v>
+        <v>185</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>453</v>
+        <v>186</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>454</v>
+        <v>215</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>455</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4669,10 +4670,10 @@
         <v>227</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4680,32 +4681,32 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>460</v>
+        <v>201</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>461</v>
+        <v>202</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
-        <v>227</v>
+        <v>35</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>462</v>
+        <v>52</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>463</v>
+        <v>53</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4713,43 +4714,43 @@
         <v>227</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>467</v>
+        <v>165</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>468</v>
+        <v>140</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>469</v>
+        <v>141</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>470</v>
+        <v>19</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>471</v>
+        <v>20</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4757,10 +4758,10 @@
         <v>227</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4768,10 +4769,10 @@
         <v>227</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>474</v>
+        <v>316</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>475</v>
+        <v>317</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -4779,120 +4780,120 @@
         <v>227</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>476</v>
+        <v>364</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>477</v>
+        <v>365</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>478</v>
+        <v>27</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>479</v>
+        <v>28</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>480</v>
+        <v>23</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>481</v>
+        <v>24</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>483</v>
+        <v>25</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>484</v>
+        <v>26</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
-        <v>482</v>
+        <v>570</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>485</v>
+        <v>575</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>486</v>
+        <v>576</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>487</v>
+        <v>29</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>489</v>
+        <v>31</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>490</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>491</v>
+        <v>3</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>492</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>494</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
-        <v>482</v>
+        <v>227</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>495</v>
+        <v>250</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>496</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
-        <v>482</v>
+        <v>570</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4900,76 +4901,76 @@
         <v>482</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
-        <v>482</v>
+        <v>227</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
-        <v>482</v>
+        <v>227</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
-        <v>482</v>
+        <v>95</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>505</v>
+        <v>110</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>506</v>
+        <v>111</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
-        <v>482</v>
+        <v>227</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>507</v>
+        <v>346</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>508</v>
+        <v>347</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>509</v>
+        <v>213</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>510</v>
+        <v>214</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>511</v>
+        <v>223</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>512</v>
+        <v>224</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4977,10 +4978,10 @@
         <v>482</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4988,307 +4989,307 @@
         <v>482</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
-        <v>482</v>
+        <v>570</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
-        <v>482</v>
+        <v>95</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>519</v>
+        <v>168</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>520</v>
+        <v>169</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>521</v>
+        <v>217</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>522</v>
+        <v>218</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>523</v>
+        <v>219</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>524</v>
+        <v>220</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
-        <v>482</v>
+        <v>95</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>525</v>
+        <v>172</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>526</v>
+        <v>173</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>527</v>
+        <v>189</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>528</v>
+        <v>190</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
-        <v>482</v>
+        <v>176</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>529</v>
+        <v>191</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>530</v>
+        <v>192</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
-        <v>482</v>
+        <v>570</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>532</v>
+        <v>572</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>535</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>536</v>
+        <v>446</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>537</v>
+        <v>447</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>538</v>
+        <v>256</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>539</v>
+        <v>257</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
-        <v>533</v>
+        <v>35</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>540</v>
+        <v>56</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>541</v>
+        <v>57</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
-        <v>533</v>
+        <v>95</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>542</v>
+        <v>122</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>543</v>
+        <v>123</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
-        <v>533</v>
+        <v>176</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>544</v>
+        <v>181</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>545</v>
+        <v>182</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
-        <v>533</v>
+        <v>176</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>546</v>
+        <v>209</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>547</v>
+        <v>210</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>548</v>
+        <v>306</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>549</v>
+        <v>307</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>550</v>
+        <v>254</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>551</v>
+        <v>255</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>552</v>
+        <v>274</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>553</v>
+        <v>275</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>554</v>
+        <v>464</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>555</v>
+        <v>465</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>556</v>
+        <v>244</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>557</v>
+        <v>245</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
-        <v>533</v>
+        <v>95</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>558</v>
+        <v>170</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>559</v>
+        <v>171</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>560</v>
+        <v>408</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>561</v>
+        <v>409</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
-        <v>533</v>
+        <v>176</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>562</v>
+        <v>207</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>563</v>
+        <v>208</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
-        <v>533</v>
+        <v>92</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>564</v>
+        <v>93</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>565</v>
+        <v>94</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
-        <v>533</v>
+        <v>570</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
-        <v>533</v>
+        <v>227</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>568</v>
+        <v>276</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>569</v>
+        <v>277</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
-        <v>570</v>
+        <v>95</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>571</v>
+        <v>166</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>572</v>
+        <v>167</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -5296,21 +5297,21 @@
         <v>570</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>1</v>
+        <v>585</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>2</v>
+        <v>586</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
-        <v>570</v>
+        <v>176</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>573</v>
+        <v>225</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>574</v>
+        <v>226</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -5318,10 +5319,10 @@
         <v>570</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -5329,57 +5330,51 @@
         <v>570</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
-        <v>570</v>
+        <v>176</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>579</v>
+        <v>177</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>580</v>
+        <v>178</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
-        <v>570</v>
+        <v>35</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>581</v>
+        <v>62</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>582</v>
+        <v>63</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
-        <v>570</v>
+        <v>227</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>583</v>
+        <v>352</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>585</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>586</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C290" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C290">
+      <sortCondition ref="B1:B290"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/data/product_categories.xlsx
+++ b/data/product_categories.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A26BA8C9-DA62-4738-B307-24D427325E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6465141-2DE7-4895-973B-D99FFD74E384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="9810" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Final for Post Inventory Count " sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Final for Post Inventory Count '!$A$1:$C$290</definedName>
     <definedName name="JR_PAGE_ANCHOR_0_1">'Final for Post Inventory Count '!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="591">
   <si>
     <t>DD Beverage Cooler (Primary)</t>
   </si>
@@ -1789,6 +1789,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>pcs in box</t>
   </si>
 </sst>
 </file>
@@ -2165,10 +2168,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C290"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C240" sqref="C240"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -2179,7 +2182,7 @@
     <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>589</v>
       </c>
@@ -2189,8 +2192,11 @@
       <c r="C1" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>227</v>
       </c>
@@ -2200,8 +2206,11 @@
       <c r="C2" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>227</v>
       </c>
@@ -2211,8 +2220,11 @@
       <c r="C3" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>35</v>
       </c>
@@ -2222,8 +2234,11 @@
       <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>227</v>
       </c>
@@ -2233,8 +2248,11 @@
       <c r="C5" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>95</v>
       </c>
@@ -2244,8 +2262,11 @@
       <c r="C6" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>95</v>
       </c>
@@ -2255,8 +2276,11 @@
       <c r="C7" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>95</v>
       </c>
@@ -2266,8 +2290,11 @@
       <c r="C8" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>227</v>
       </c>
@@ -2277,8 +2304,11 @@
       <c r="C9" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>227</v>
       </c>
@@ -2288,8 +2318,11 @@
       <c r="C10" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>227</v>
       </c>
@@ -2299,8 +2332,11 @@
       <c r="C11" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>227</v>
       </c>
@@ -2310,8 +2346,11 @@
       <c r="C12" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>227</v>
       </c>
@@ -2321,8 +2360,11 @@
       <c r="C13" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>227</v>
       </c>
@@ -2332,8 +2374,11 @@
       <c r="C14" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>227</v>
       </c>
@@ -2343,8 +2388,11 @@
       <c r="C15" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>176</v>
       </c>
@@ -2354,8 +2402,11 @@
       <c r="C16" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>482</v>
       </c>
@@ -2365,8 +2416,11 @@
       <c r="C17" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="2">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>227</v>
       </c>
@@ -2376,8 +2430,11 @@
       <c r="C18" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>227</v>
       </c>
@@ -2387,8 +2444,11 @@
       <c r="C19" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>227</v>
       </c>
@@ -2398,8 +2458,11 @@
       <c r="C20" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>227</v>
       </c>
@@ -2409,8 +2472,11 @@
       <c r="C21" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>227</v>
       </c>
@@ -2420,8 +2486,11 @@
       <c r="C22" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>227</v>
       </c>
@@ -2431,8 +2500,11 @@
       <c r="C23" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>227</v>
       </c>
@@ -2442,8 +2514,11 @@
       <c r="C24" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>482</v>
       </c>
@@ -2453,8 +2528,11 @@
       <c r="C25" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>227</v>
       </c>
@@ -2464,8 +2542,11 @@
       <c r="C26" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>227</v>
       </c>
@@ -2475,8 +2556,11 @@
       <c r="C27" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>227</v>
       </c>
@@ -2486,8 +2570,11 @@
       <c r="C28" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>227</v>
       </c>
@@ -2497,8 +2584,11 @@
       <c r="C29" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>227</v>
       </c>
@@ -2508,8 +2598,11 @@
       <c r="C30" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>227</v>
       </c>
@@ -2519,8 +2612,11 @@
       <c r="C31" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>482</v>
       </c>
@@ -2530,8 +2626,11 @@
       <c r="C32" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>482</v>
       </c>
@@ -2541,8 +2640,11 @@
       <c r="C33" s="3" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>482</v>
       </c>
@@ -2552,8 +2654,11 @@
       <c r="C34" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>482</v>
       </c>
@@ -2563,8 +2668,11 @@
       <c r="C35" s="3" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>482</v>
       </c>
@@ -2574,8 +2682,11 @@
       <c r="C36" s="3" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>482</v>
       </c>
@@ -2585,8 +2696,11 @@
       <c r="C37" s="3" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>482</v>
       </c>
@@ -2596,8 +2710,11 @@
       <c r="C38" s="3" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>95</v>
       </c>
@@ -2607,8 +2724,11 @@
       <c r="C39" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>227</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="C40" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>227</v>
       </c>
@@ -2629,8 +2752,11 @@
       <c r="C41" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>227</v>
       </c>
@@ -2640,8 +2766,11 @@
       <c r="C42" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>227</v>
       </c>
@@ -2651,8 +2780,11 @@
       <c r="C43" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>227</v>
       </c>
@@ -2662,8 +2794,11 @@
       <c r="C44" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>227</v>
       </c>
@@ -2673,8 +2808,11 @@
       <c r="C45" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>227</v>
       </c>
@@ -2684,8 +2822,11 @@
       <c r="C46" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>227</v>
       </c>
@@ -2695,8 +2836,11 @@
       <c r="C47" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>227</v>
       </c>
@@ -2706,8 +2850,11 @@
       <c r="C48" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>482</v>
       </c>
@@ -2717,8 +2864,11 @@
       <c r="C49" s="3" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>95</v>
       </c>
@@ -2728,8 +2878,11 @@
       <c r="C50" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>95</v>
       </c>
@@ -2739,8 +2892,11 @@
       <c r="C51" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" s="2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>95</v>
       </c>
@@ -2750,8 +2906,11 @@
       <c r="C52" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>95</v>
       </c>
@@ -2761,8 +2920,11 @@
       <c r="C53" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>95</v>
       </c>
@@ -2772,8 +2934,11 @@
       <c r="C54" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>95</v>
       </c>
@@ -2783,8 +2948,11 @@
       <c r="C55" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>95</v>
       </c>
@@ -2794,8 +2962,11 @@
       <c r="C56" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>95</v>
       </c>
@@ -2805,8 +2976,11 @@
       <c r="C57" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>95</v>
       </c>
@@ -2816,8 +2990,11 @@
       <c r="C58" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>95</v>
       </c>
@@ -2827,8 +3004,11 @@
       <c r="C59" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>35</v>
       </c>
@@ -2838,8 +3018,11 @@
       <c r="C60" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>35</v>
       </c>
@@ -2849,8 +3032,11 @@
       <c r="C61" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>35</v>
       </c>
@@ -2860,8 +3046,11 @@
       <c r="C62" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>227</v>
       </c>
@@ -2871,8 +3060,11 @@
       <c r="C63" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>227</v>
       </c>
@@ -2882,8 +3074,11 @@
       <c r="C64" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>35</v>
       </c>
@@ -2893,8 +3088,11 @@
       <c r="C65" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>227</v>
       </c>
@@ -2904,8 +3102,11 @@
       <c r="C66" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>227</v>
       </c>
@@ -2915,8 +3116,11 @@
       <c r="C67" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>227</v>
       </c>
@@ -2926,8 +3130,11 @@
       <c r="C68" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>227</v>
       </c>
@@ -2937,8 +3144,11 @@
       <c r="C69" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>227</v>
       </c>
@@ -2948,8 +3158,11 @@
       <c r="C70" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>227</v>
       </c>
@@ -2959,8 +3172,11 @@
       <c r="C71" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>227</v>
       </c>
@@ -2970,8 +3186,11 @@
       <c r="C72" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>95</v>
       </c>
@@ -2981,8 +3200,11 @@
       <c r="C73" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>227</v>
       </c>
@@ -2992,8 +3214,11 @@
       <c r="C74" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>35</v>
       </c>
@@ -3003,8 +3228,11 @@
       <c r="C75" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>0</v>
       </c>
@@ -3014,8 +3242,11 @@
       <c r="C76" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>0</v>
       </c>
@@ -3025,8 +3256,11 @@
       <c r="C77" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>0</v>
       </c>
@@ -3036,8 +3270,11 @@
       <c r="C78" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>176</v>
       </c>
@@ -3047,8 +3284,11 @@
       <c r="C79" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>176</v>
       </c>
@@ -3058,8 +3298,11 @@
       <c r="C80" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>227</v>
       </c>
@@ -3069,8 +3312,11 @@
       <c r="C81" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>227</v>
       </c>
@@ -3080,8 +3326,11 @@
       <c r="C82" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>227</v>
       </c>
@@ -3091,8 +3340,11 @@
       <c r="C83" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>227</v>
       </c>
@@ -3102,8 +3354,11 @@
       <c r="C84" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>227</v>
       </c>
@@ -3113,8 +3368,11 @@
       <c r="C85" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>227</v>
       </c>
@@ -3124,8 +3382,11 @@
       <c r="C86" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>227</v>
       </c>
@@ -3135,8 +3396,11 @@
       <c r="C87" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>227</v>
       </c>
@@ -3146,8 +3410,11 @@
       <c r="C88" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88" s="2">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>482</v>
       </c>
@@ -3157,8 +3424,11 @@
       <c r="C89" s="3" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>95</v>
       </c>
@@ -3168,8 +3438,11 @@
       <c r="C90" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>95</v>
       </c>
@@ -3179,8 +3452,11 @@
       <c r="C91" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>35</v>
       </c>
@@ -3190,8 +3466,11 @@
       <c r="C92" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>0</v>
       </c>
@@ -3201,8 +3480,11 @@
       <c r="C93" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>0</v>
       </c>
@@ -3212,8 +3494,11 @@
       <c r="C94" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>0</v>
       </c>
@@ -3223,8 +3508,11 @@
       <c r="C95" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>482</v>
       </c>
@@ -3234,8 +3522,11 @@
       <c r="C96" s="3" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>482</v>
       </c>
@@ -3245,8 +3536,11 @@
       <c r="C97" s="3" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>482</v>
       </c>
@@ -3256,8 +3550,11 @@
       <c r="C98" s="3" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>482</v>
       </c>
@@ -3267,8 +3564,11 @@
       <c r="C99" s="3" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>227</v>
       </c>
@@ -3278,8 +3578,11 @@
       <c r="C100" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>95</v>
       </c>
@@ -3289,8 +3592,11 @@
       <c r="C101" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>95</v>
       </c>
@@ -3300,8 +3606,11 @@
       <c r="C102" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>95</v>
       </c>
@@ -3311,8 +3620,11 @@
       <c r="C103" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>95</v>
       </c>
@@ -3322,8 +3634,11 @@
       <c r="C104" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>95</v>
       </c>
@@ -3333,8 +3648,11 @@
       <c r="C105" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>227</v>
       </c>
@@ -3344,8 +3662,11 @@
       <c r="C106" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>227</v>
       </c>
@@ -3355,8 +3676,11 @@
       <c r="C107" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>227</v>
       </c>
@@ -3366,8 +3690,11 @@
       <c r="C108" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>533</v>
       </c>
@@ -3377,8 +3704,11 @@
       <c r="C109" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>227</v>
       </c>
@@ -3388,8 +3718,11 @@
       <c r="C110" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>533</v>
       </c>
@@ -3399,8 +3732,11 @@
       <c r="C111" s="3" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>533</v>
       </c>
@@ -3410,8 +3746,11 @@
       <c r="C112" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>533</v>
       </c>
@@ -3421,8 +3760,11 @@
       <c r="C113" s="3" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>176</v>
       </c>
@@ -3432,8 +3774,11 @@
       <c r="C114" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>176</v>
       </c>
@@ -3443,8 +3788,11 @@
       <c r="C115" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>176</v>
       </c>
@@ -3454,8 +3802,11 @@
       <c r="C116" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>176</v>
       </c>
@@ -3465,8 +3816,11 @@
       <c r="C117" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>176</v>
       </c>
@@ -3476,8 +3830,11 @@
       <c r="C118" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>176</v>
       </c>
@@ -3487,8 +3844,11 @@
       <c r="C119" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>227</v>
       </c>
@@ -3498,8 +3858,11 @@
       <c r="C120" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>227</v>
       </c>
@@ -3509,8 +3872,11 @@
       <c r="C121" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>0</v>
       </c>
@@ -3520,8 +3886,11 @@
       <c r="C122" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>35</v>
       </c>
@@ -3531,8 +3900,11 @@
       <c r="C123" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>227</v>
       </c>
@@ -3542,8 +3914,11 @@
       <c r="C124" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>227</v>
       </c>
@@ -3553,8 +3928,11 @@
       <c r="C125" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>227</v>
       </c>
@@ -3564,8 +3942,11 @@
       <c r="C126" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>227</v>
       </c>
@@ -3575,8 +3956,11 @@
       <c r="C127" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>227</v>
       </c>
@@ -3586,8 +3970,11 @@
       <c r="C128" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>227</v>
       </c>
@@ -3597,8 +3984,11 @@
       <c r="C129" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>227</v>
       </c>
@@ -3608,8 +3998,11 @@
       <c r="C130" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>227</v>
       </c>
@@ -3619,8 +4012,11 @@
       <c r="C131" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>227</v>
       </c>
@@ -3630,8 +4026,11 @@
       <c r="C132" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>227</v>
       </c>
@@ -3641,8 +4040,11 @@
       <c r="C133" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>227</v>
       </c>
@@ -3652,8 +4054,11 @@
       <c r="C134" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>227</v>
       </c>
@@ -3663,8 +4068,11 @@
       <c r="C135" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>227</v>
       </c>
@@ -3674,8 +4082,11 @@
       <c r="C136" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>227</v>
       </c>
@@ -3685,8 +4096,11 @@
       <c r="C137" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>227</v>
       </c>
@@ -3696,8 +4110,11 @@
       <c r="C138" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>227</v>
       </c>
@@ -3707,8 +4124,11 @@
       <c r="C139" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>533</v>
       </c>
@@ -3718,8 +4138,11 @@
       <c r="C140" s="3" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>533</v>
       </c>
@@ -3729,8 +4152,11 @@
       <c r="C141" s="3" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>95</v>
       </c>
@@ -3740,8 +4166,11 @@
       <c r="C142" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>533</v>
       </c>
@@ -3751,8 +4180,11 @@
       <c r="C143" s="3" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>176</v>
       </c>
@@ -3762,8 +4194,11 @@
       <c r="C144" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>533</v>
       </c>
@@ -3773,8 +4208,11 @@
       <c r="C145" s="3" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>227</v>
       </c>
@@ -3784,8 +4222,11 @@
       <c r="C146" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>533</v>
       </c>
@@ -3795,8 +4236,11 @@
       <c r="C147" s="3" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>533</v>
       </c>
@@ -3806,8 +4250,11 @@
       <c r="C148" s="3" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>0</v>
       </c>
@@ -3817,8 +4264,11 @@
       <c r="C149" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>227</v>
       </c>
@@ -3828,8 +4278,11 @@
       <c r="C150" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>227</v>
       </c>
@@ -3839,8 +4292,11 @@
       <c r="C151" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>227</v>
       </c>
@@ -3850,8 +4306,11 @@
       <c r="C152" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>35</v>
       </c>
@@ -3861,8 +4320,11 @@
       <c r="C153" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>35</v>
       </c>
@@ -3872,8 +4334,11 @@
       <c r="C154" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>35</v>
       </c>
@@ -3883,8 +4348,11 @@
       <c r="C155" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>35</v>
       </c>
@@ -3894,8 +4362,11 @@
       <c r="C156" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>35</v>
       </c>
@@ -3905,8 +4376,11 @@
       <c r="C157" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>35</v>
       </c>
@@ -3916,8 +4390,11 @@
       <c r="C158" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>35</v>
       </c>
@@ -3927,8 +4404,11 @@
       <c r="C159" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>35</v>
       </c>
@@ -3938,8 +4418,11 @@
       <c r="C160" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>35</v>
       </c>
@@ -3949,8 +4432,11 @@
       <c r="C161" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>35</v>
       </c>
@@ -3960,8 +4446,11 @@
       <c r="C162" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>35</v>
       </c>
@@ -3971,8 +4460,11 @@
       <c r="C163" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>35</v>
       </c>
@@ -3982,8 +4474,11 @@
       <c r="C164" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>35</v>
       </c>
@@ -3993,8 +4488,11 @@
       <c r="C165" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>35</v>
       </c>
@@ -4004,8 +4502,11 @@
       <c r="C166" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>35</v>
       </c>
@@ -4015,8 +4516,11 @@
       <c r="C167" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>35</v>
       </c>
@@ -4026,8 +4530,11 @@
       <c r="C168" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>35</v>
       </c>
@@ -4037,8 +4544,11 @@
       <c r="C169" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>227</v>
       </c>
@@ -4048,8 +4558,11 @@
       <c r="C170" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>95</v>
       </c>
@@ -4059,8 +4572,11 @@
       <c r="C171" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>227</v>
       </c>
@@ -4070,8 +4586,11 @@
       <c r="C172" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>227</v>
       </c>
@@ -4081,8 +4600,11 @@
       <c r="C173" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>227</v>
       </c>
@@ -4092,8 +4614,11 @@
       <c r="C174" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>227</v>
       </c>
@@ -4103,8 +4628,11 @@
       <c r="C175" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>227</v>
       </c>
@@ -4114,8 +4642,11 @@
       <c r="C176" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>227</v>
       </c>
@@ -4125,8 +4656,11 @@
       <c r="C177" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>227</v>
       </c>
@@ -4136,8 +4670,11 @@
       <c r="C178" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178" s="2">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>227</v>
       </c>
@@ -4147,8 +4684,11 @@
       <c r="C179" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>227</v>
       </c>
@@ -4158,8 +4698,11 @@
       <c r="C180" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>227</v>
       </c>
@@ -4169,8 +4712,11 @@
       <c r="C181" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>533</v>
       </c>
@@ -4180,8 +4726,11 @@
       <c r="C182" s="3" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>533</v>
       </c>
@@ -4191,8 +4740,11 @@
       <c r="C183" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>533</v>
       </c>
@@ -4202,8 +4754,11 @@
       <c r="C184" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>482</v>
       </c>
@@ -4213,8 +4768,11 @@
       <c r="C185" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>227</v>
       </c>
@@ -4224,8 +4782,11 @@
       <c r="C186" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>482</v>
       </c>
@@ -4235,8 +4796,11 @@
       <c r="C187" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>533</v>
       </c>
@@ -4246,8 +4810,11 @@
       <c r="C188" s="3" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>227</v>
       </c>
@@ -4257,8 +4824,11 @@
       <c r="C189" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>227</v>
       </c>
@@ -4268,8 +4838,11 @@
       <c r="C190" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>533</v>
       </c>
@@ -4279,8 +4852,11 @@
       <c r="C191" s="3" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>227</v>
       </c>
@@ -4290,8 +4866,11 @@
       <c r="C192" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>533</v>
       </c>
@@ -4301,8 +4880,11 @@
       <c r="C193" s="3" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>533</v>
       </c>
@@ -4312,8 +4894,11 @@
       <c r="C194" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>95</v>
       </c>
@@ -4323,8 +4908,11 @@
       <c r="C195" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>95</v>
       </c>
@@ -4334,8 +4922,11 @@
       <c r="C196" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>95</v>
       </c>
@@ -4345,8 +4936,11 @@
       <c r="C197" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>227</v>
       </c>
@@ -4356,8 +4950,11 @@
       <c r="C198" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>482</v>
       </c>
@@ -4367,8 +4964,11 @@
       <c r="C199" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>227</v>
       </c>
@@ -4378,8 +4978,11 @@
       <c r="C200" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>227</v>
       </c>
@@ -4389,8 +4992,11 @@
       <c r="C201" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>227</v>
       </c>
@@ -4400,8 +5006,11 @@
       <c r="C202" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>227</v>
       </c>
@@ -4411,8 +5020,11 @@
       <c r="C203" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>227</v>
       </c>
@@ -4422,8 +5034,11 @@
       <c r="C204" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>95</v>
       </c>
@@ -4433,8 +5048,11 @@
       <c r="C205" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>95</v>
       </c>
@@ -4444,8 +5062,11 @@
       <c r="C206" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>95</v>
       </c>
@@ -4455,8 +5076,11 @@
       <c r="C207" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>482</v>
       </c>
@@ -4466,8 +5090,11 @@
       <c r="C208" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>533</v>
       </c>
@@ -4477,8 +5104,11 @@
       <c r="C209" s="3" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>482</v>
       </c>
@@ -4488,8 +5118,11 @@
       <c r="C210" s="3" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>227</v>
       </c>
@@ -4499,8 +5132,11 @@
       <c r="C211" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>227</v>
       </c>
@@ -4510,8 +5146,11 @@
       <c r="C212" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>227</v>
       </c>
@@ -4521,8 +5160,11 @@
       <c r="C213" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>95</v>
       </c>
@@ -4532,8 +5174,11 @@
       <c r="C214" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214" s="2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>482</v>
       </c>
@@ -4543,8 +5188,11 @@
       <c r="C215" s="3" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>227</v>
       </c>
@@ -4554,8 +5202,11 @@
       <c r="C216" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>227</v>
       </c>
@@ -4565,8 +5216,11 @@
       <c r="C217" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>482</v>
       </c>
@@ -4576,8 +5230,11 @@
       <c r="C218" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>176</v>
       </c>
@@ -4587,8 +5244,11 @@
       <c r="C219" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>227</v>
       </c>
@@ -4598,8 +5258,11 @@
       <c r="C220" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220" s="2">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>227</v>
       </c>
@@ -4609,8 +5272,11 @@
       <c r="C221" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>227</v>
       </c>
@@ -4620,8 +5286,11 @@
       <c r="C222" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>95</v>
       </c>
@@ -4631,8 +5300,11 @@
       <c r="C223" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>227</v>
       </c>
@@ -4642,8 +5314,11 @@
       <c r="C224" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>176</v>
       </c>
@@ -4653,8 +5328,11 @@
       <c r="C225" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>176</v>
       </c>
@@ -4664,8 +5342,11 @@
       <c r="C226" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>227</v>
       </c>
@@ -4675,8 +5356,11 @@
       <c r="C227" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
@@ -4686,8 +5370,11 @@
       <c r="C228" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>176</v>
       </c>
@@ -4697,8 +5384,11 @@
       <c r="C229" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>35</v>
       </c>
@@ -4708,8 +5398,11 @@
       <c r="C230" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>227</v>
       </c>
@@ -4719,8 +5412,11 @@
       <c r="C231" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>95</v>
       </c>
@@ -4730,8 +5426,11 @@
       <c r="C232" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>95</v>
       </c>
@@ -4741,8 +5440,11 @@
       <c r="C233" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>0</v>
       </c>
@@ -4752,8 +5454,11 @@
       <c r="C234" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>227</v>
       </c>
@@ -4763,8 +5468,11 @@
       <c r="C235" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>227</v>
       </c>
@@ -4774,8 +5482,11 @@
       <c r="C236" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>227</v>
       </c>
@@ -4785,8 +5496,11 @@
       <c r="C237" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>0</v>
       </c>
@@ -4796,8 +5510,11 @@
       <c r="C238" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>0</v>
       </c>
@@ -4807,8 +5524,11 @@
       <c r="C239" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>0</v>
       </c>
@@ -4818,8 +5538,11 @@
       <c r="C240" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>570</v>
       </c>
@@ -4829,8 +5552,11 @@
       <c r="C241" s="3" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>0</v>
       </c>
@@ -4840,8 +5566,11 @@
       <c r="C242" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>0</v>
       </c>
@@ -4851,8 +5580,11 @@
       <c r="C243" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>0</v>
       </c>
@@ -4862,8 +5594,11 @@
       <c r="C244" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>0</v>
       </c>
@@ -4873,8 +5608,11 @@
       <c r="C245" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>227</v>
       </c>
@@ -4884,8 +5622,11 @@
       <c r="C246" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>570</v>
       </c>
@@ -4895,8 +5636,11 @@
       <c r="C247" s="3" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>482</v>
       </c>
@@ -4906,8 +5650,11 @@
       <c r="C248" s="3" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>227</v>
       </c>
@@ -4917,8 +5664,11 @@
       <c r="C249" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>227</v>
       </c>
@@ -4928,8 +5678,11 @@
       <c r="C250" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>95</v>
       </c>
@@ -4939,8 +5692,11 @@
       <c r="C251" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>227</v>
       </c>
@@ -4950,8 +5706,11 @@
       <c r="C252" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>176</v>
       </c>
@@ -4961,8 +5720,11 @@
       <c r="C253" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>176</v>
       </c>
@@ -4972,8 +5734,11 @@
       <c r="C254" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>482</v>
       </c>
@@ -4983,8 +5748,11 @@
       <c r="C255" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>482</v>
       </c>
@@ -4994,8 +5762,11 @@
       <c r="C256" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>570</v>
       </c>
@@ -5005,8 +5776,11 @@
       <c r="C257" s="3" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>95</v>
       </c>
@@ -5016,8 +5790,11 @@
       <c r="C258" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>176</v>
       </c>
@@ -5027,8 +5804,11 @@
       <c r="C259" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>176</v>
       </c>
@@ -5038,8 +5818,11 @@
       <c r="C260" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>95</v>
       </c>
@@ -5049,8 +5832,11 @@
       <c r="C261" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>176</v>
       </c>
@@ -5060,8 +5846,11 @@
       <c r="C262" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>176</v>
       </c>
@@ -5071,8 +5860,11 @@
       <c r="C263" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>570</v>
       </c>
@@ -5082,8 +5874,11 @@
       <c r="C264" s="3" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>0</v>
       </c>
@@ -5093,8 +5888,11 @@
       <c r="C265" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>227</v>
       </c>
@@ -5104,8 +5902,11 @@
       <c r="C266" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>227</v>
       </c>
@@ -5115,8 +5916,11 @@
       <c r="C267" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D267" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>35</v>
       </c>
@@ -5126,8 +5930,11 @@
       <c r="C268" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>95</v>
       </c>
@@ -5137,8 +5944,11 @@
       <c r="C269" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>176</v>
       </c>
@@ -5148,8 +5958,11 @@
       <c r="C270" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>176</v>
       </c>
@@ -5159,8 +5972,11 @@
       <c r="C271" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>227</v>
       </c>
@@ -5170,8 +5986,11 @@
       <c r="C272" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>227</v>
       </c>
@@ -5181,8 +6000,11 @@
       <c r="C273" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>227</v>
       </c>
@@ -5192,8 +6014,11 @@
       <c r="C274" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>227</v>
       </c>
@@ -5203,8 +6028,11 @@
       <c r="C275" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>227</v>
       </c>
@@ -5214,8 +6042,11 @@
       <c r="C276" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>95</v>
       </c>
@@ -5225,8 +6056,11 @@
       <c r="C277" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>227</v>
       </c>
@@ -5236,8 +6070,11 @@
       <c r="C278" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>176</v>
       </c>
@@ -5247,8 +6084,11 @@
       <c r="C279" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>92</v>
       </c>
@@ -5258,8 +6098,11 @@
       <c r="C280" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>570</v>
       </c>
@@ -5269,8 +6112,11 @@
       <c r="C281" s="3" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>227</v>
       </c>
@@ -5280,8 +6126,11 @@
       <c r="C282" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>95</v>
       </c>
@@ -5291,8 +6140,11 @@
       <c r="C283" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>570</v>
       </c>
@@ -5302,8 +6154,11 @@
       <c r="C284" s="3" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>176</v>
       </c>
@@ -5313,8 +6168,11 @@
       <c r="C285" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>570</v>
       </c>
@@ -5324,8 +6182,11 @@
       <c r="C286" s="3" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>570</v>
       </c>
@@ -5335,8 +6196,11 @@
       <c r="C287" s="3" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>176</v>
       </c>
@@ -5346,8 +6210,11 @@
       <c r="C288" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>35</v>
       </c>
@@ -5357,8 +6224,11 @@
       <c r="C289" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>227</v>
       </c>
@@ -5367,6 +6237,9 @@
       </c>
       <c r="C290" s="3" t="s">
         <v>353</v>
+      </c>
+      <c r="D290" s="2">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
